--- a/2_raw_data/running_info_for_all.xlsx
+++ b/2_raw_data/running_info_for_all.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ishayu/Documents/GitHub/EigenBot_stability_metric/2_raw_data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ishayu/Documents/EigenBot_stability_metric/2_raw_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28B5795B-A830-3949-AD4E-3B94566B971A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AF69951A-EDA0-9B49-AC21-EA16201F3B83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="680" windowWidth="15300" windowHeight="9000" xr2:uid="{7314497C-2E6B-7A42-B280-549EC75EB95D}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="20320" windowHeight="20280" xr2:uid="{7314497C-2E6B-7A42-B280-549EC75EB95D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="9">
   <si>
     <t>control_type</t>
   </si>
@@ -59,19 +59,10 @@
     <t>t_f</t>
   </si>
   <si>
-    <t>"centralised"</t>
+    <t>centralised</t>
   </si>
   <si>
-    <t>"1"</t>
-  </si>
-  <si>
-    <t>"2"</t>
-  </si>
-  <si>
-    <t>"3"</t>
-  </si>
-  <si>
-    <t>"distributed"</t>
+    <t>distributed</t>
   </si>
 </sst>
 </file>
@@ -443,10 +434,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E31A8A2-2E5B-C840-A1BD-3D7078D7D3D0}">
-  <dimension ref="A1:G45"/>
+  <dimension ref="A1:G113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K100" sqref="K100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -479,22 +470,22 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>140</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
+        <v>10</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>1380</v>
+        <v>9999</v>
       </c>
       <c r="F2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>180</v>
+        <v>200</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -502,22 +493,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>180</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
+        <v>10</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
       </c>
       <c r="D3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E3">
         <v>9999</v>
       </c>
       <c r="F3">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>150</v>
+        <v>200</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -525,22 +516,22 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>180</v>
-      </c>
-      <c r="C4" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>1380</v>
+        <v>9999</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>300</v>
+        <v>200</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -548,10 +539,10 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>180</v>
-      </c>
-      <c r="C5" t="s">
-        <v>10</v>
+        <v>20</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -563,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="G5">
-        <v>300</v>
+        <v>200</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -571,10 +562,10 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>220</v>
-      </c>
-      <c r="C6" t="s">
-        <v>8</v>
+        <v>20</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -583,10 +574,10 @@
         <v>9999</v>
       </c>
       <c r="F6">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>150</v>
+        <v>200</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -594,22 +585,22 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>220</v>
-      </c>
-      <c r="C7" t="s">
-        <v>9</v>
+        <v>20</v>
+      </c>
+      <c r="C7">
+        <v>3</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>1150</v>
+        <v>9999</v>
       </c>
       <c r="F7">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G7">
-        <v>150</v>
+        <v>200</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -617,22 +608,22 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>220</v>
-      </c>
-      <c r="C8" t="s">
-        <v>10</v>
+        <v>30</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
       </c>
       <c r="D8">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="E8">
         <v>9999</v>
       </c>
       <c r="F8">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G8">
-        <v>100</v>
+        <v>200</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -640,10 +631,10 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>260</v>
-      </c>
-      <c r="C9" t="s">
-        <v>8</v>
+        <v>37</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -655,7 +646,7 @@
         <v>0</v>
       </c>
       <c r="G9">
-        <v>130</v>
+        <v>200</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -663,10 +654,10 @@
         <v>7</v>
       </c>
       <c r="B10">
-        <v>260</v>
-      </c>
-      <c r="C10" t="s">
-        <v>9</v>
+        <v>40</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -686,22 +677,22 @@
         <v>7</v>
       </c>
       <c r="B11">
-        <v>260</v>
-      </c>
-      <c r="C11" t="s">
-        <v>10</v>
+        <v>40</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>1530</v>
+        <v>9999</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>150</v>
+        <v>200</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -709,16 +700,16 @@
         <v>7</v>
       </c>
       <c r="B12">
-        <v>320</v>
-      </c>
-      <c r="C12" t="s">
-        <v>8</v>
+        <v>40</v>
+      </c>
+      <c r="C12">
+        <v>3</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>1450</v>
+        <v>9999</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -732,22 +723,22 @@
         <v>7</v>
       </c>
       <c r="B13">
-        <v>320</v>
-      </c>
-      <c r="C13" t="s">
-        <v>9</v>
+        <v>40</v>
+      </c>
+      <c r="C13">
+        <v>4</v>
       </c>
       <c r="D13">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E13">
-        <v>780</v>
+        <v>9999</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>150</v>
+        <v>200</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
@@ -755,10 +746,10 @@
         <v>7</v>
       </c>
       <c r="B14">
-        <v>330</v>
-      </c>
-      <c r="C14" t="s">
-        <v>8</v>
+        <v>60</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -767,7 +758,7 @@
         <v>9999</v>
       </c>
       <c r="F14">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="G14">
         <v>200</v>
@@ -778,10 +769,10 @@
         <v>7</v>
       </c>
       <c r="B15">
-        <v>350</v>
-      </c>
-      <c r="C15" t="s">
-        <v>8</v>
+        <v>60</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -793,18 +784,18 @@
         <v>0</v>
       </c>
       <c r="G15">
-        <v>150</v>
+        <v>200</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B16">
-        <v>100</v>
-      </c>
-      <c r="C16" t="s">
-        <v>8</v>
+        <v>60</v>
+      </c>
+      <c r="C16">
+        <v>3</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -813,21 +804,21 @@
         <v>9999</v>
       </c>
       <c r="F16">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="G16">
-        <v>300</v>
+        <v>200</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B17">
-        <v>140</v>
-      </c>
-      <c r="C17" t="s">
-        <v>8</v>
+        <v>60</v>
+      </c>
+      <c r="C17">
+        <v>4</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -836,21 +827,21 @@
         <v>9999</v>
       </c>
       <c r="F17">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G17">
-        <v>180</v>
+        <v>200</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B18">
-        <v>140</v>
-      </c>
-      <c r="C18" t="s">
-        <v>9</v>
+        <v>80</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -859,7 +850,7 @@
         <v>9999</v>
       </c>
       <c r="F18">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G18">
         <v>200</v>
@@ -867,13 +858,13 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B19">
-        <v>180</v>
-      </c>
-      <c r="C19" t="s">
-        <v>8</v>
+        <v>80</v>
+      </c>
+      <c r="C19">
+        <v>2</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -882,21 +873,21 @@
         <v>9999</v>
       </c>
       <c r="F19">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="G19">
-        <v>130</v>
+        <v>200</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B20">
-        <v>180</v>
-      </c>
-      <c r="C20" t="s">
-        <v>9</v>
+        <v>80</v>
+      </c>
+      <c r="C20">
+        <v>3</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -905,21 +896,21 @@
         <v>9999</v>
       </c>
       <c r="F20">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="G20">
-        <v>300</v>
+        <v>200</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B21">
-        <v>220</v>
-      </c>
-      <c r="C21" t="s">
-        <v>8</v>
+        <v>100</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -928,21 +919,21 @@
         <v>9999</v>
       </c>
       <c r="F21">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G21">
-        <v>250</v>
+        <v>200</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B22">
-        <v>260</v>
-      </c>
-      <c r="C22" t="s">
-        <v>8</v>
+        <v>100</v>
+      </c>
+      <c r="C22">
+        <v>2</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -951,7 +942,7 @@
         <v>9999</v>
       </c>
       <c r="F22">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G22">
         <v>200</v>
@@ -959,13 +950,13 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B23">
-        <v>260</v>
-      </c>
-      <c r="C23" t="s">
-        <v>9</v>
+        <v>100</v>
+      </c>
+      <c r="C23">
+        <v>3</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -974,21 +965,21 @@
         <v>9999</v>
       </c>
       <c r="F23">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="G23">
-        <v>100</v>
+        <v>200</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B24">
-        <v>260</v>
-      </c>
-      <c r="C24" t="s">
-        <v>10</v>
+        <v>140</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -997,21 +988,21 @@
         <v>9999</v>
       </c>
       <c r="F24">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="G24">
-        <v>300</v>
+        <v>200</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B25">
-        <v>300</v>
-      </c>
-      <c r="C25" t="s">
-        <v>8</v>
+        <v>140</v>
+      </c>
+      <c r="C25">
+        <v>2</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -1020,7 +1011,7 @@
         <v>9999</v>
       </c>
       <c r="F25">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="G25">
         <v>200</v>
@@ -1028,13 +1019,13 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B26">
-        <v>300</v>
-      </c>
-      <c r="C26" t="s">
-        <v>9</v>
+        <v>140</v>
+      </c>
+      <c r="C26">
+        <v>3</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -1046,18 +1037,18 @@
         <v>0</v>
       </c>
       <c r="G26">
-        <v>120</v>
+        <v>200</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B27">
-        <v>300</v>
-      </c>
-      <c r="C27" t="s">
-        <v>10</v>
+        <v>140</v>
+      </c>
+      <c r="C27">
+        <v>4</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -1066,21 +1057,21 @@
         <v>9999</v>
       </c>
       <c r="F27">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="G27">
-        <v>210</v>
+        <v>200</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B28">
-        <v>350</v>
-      </c>
-      <c r="C28" t="s">
-        <v>8</v>
+        <v>180</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -1089,21 +1080,21 @@
         <v>9999</v>
       </c>
       <c r="F28">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="G28">
-        <v>185</v>
+        <v>200</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B29">
-        <v>370</v>
-      </c>
-      <c r="C29" t="s">
-        <v>8</v>
+        <v>180</v>
+      </c>
+      <c r="C29">
+        <v>2</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -1112,30 +1103,30 @@
         <v>9999</v>
       </c>
       <c r="F29">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G29">
-        <v>120</v>
+        <v>200</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B30">
-        <v>370</v>
-      </c>
-      <c r="C30" t="s">
-        <v>9</v>
+        <v>180</v>
+      </c>
+      <c r="C30">
+        <v>3</v>
       </c>
       <c r="D30">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E30">
         <v>9999</v>
       </c>
       <c r="F30">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G30">
         <v>200</v>
@@ -1143,13 +1134,13 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B31">
-        <v>400</v>
-      </c>
-      <c r="C31" t="s">
-        <v>8</v>
+        <v>180</v>
+      </c>
+      <c r="C31">
+        <v>4</v>
       </c>
       <c r="D31">
         <v>0</v>
@@ -1158,30 +1149,30 @@
         <v>9999</v>
       </c>
       <c r="F31">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="G31">
-        <v>175</v>
+        <v>200</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B32">
-        <v>400</v>
-      </c>
-      <c r="C32" t="s">
-        <v>9</v>
+        <v>220</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
       </c>
       <c r="D32">
         <v>0</v>
       </c>
       <c r="E32">
-        <v>980</v>
+        <v>9999</v>
       </c>
       <c r="F32">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G32">
         <v>200</v>
@@ -1189,13 +1180,13 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B33">
-        <v>500</v>
-      </c>
-      <c r="C33" t="s">
-        <v>8</v>
+        <v>220</v>
+      </c>
+      <c r="C33">
+        <v>2</v>
       </c>
       <c r="D33">
         <v>0</v>
@@ -1204,21 +1195,21 @@
         <v>9999</v>
       </c>
       <c r="F33">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="G33">
-        <v>140</v>
+        <v>200</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B34">
-        <v>600</v>
-      </c>
-      <c r="C34" t="s">
-        <v>8</v>
+        <v>220</v>
+      </c>
+      <c r="C34">
+        <v>3</v>
       </c>
       <c r="D34">
         <v>0</v>
@@ -1227,44 +1218,44 @@
         <v>9999</v>
       </c>
       <c r="F34">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G34">
-        <v>220</v>
+        <v>200</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B35">
-        <v>700</v>
-      </c>
-      <c r="C35" t="s">
-        <v>8</v>
+        <v>220</v>
+      </c>
+      <c r="C35">
+        <v>4</v>
       </c>
       <c r="D35">
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="E35">
         <v>9999</v>
       </c>
       <c r="F35">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="G35">
-        <v>300</v>
+        <v>200</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B36">
-        <v>800</v>
-      </c>
-      <c r="C36" t="s">
-        <v>8</v>
+        <v>260</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
       </c>
       <c r="D36">
         <v>0</v>
@@ -1273,21 +1264,21 @@
         <v>9999</v>
       </c>
       <c r="F36">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="G36">
-        <v>175</v>
+        <v>200</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B37">
-        <v>1000</v>
-      </c>
-      <c r="C37" t="s">
-        <v>8</v>
+        <v>260</v>
+      </c>
+      <c r="C37">
+        <v>2</v>
       </c>
       <c r="D37">
         <v>0</v>
@@ -1299,113 +1290,113 @@
         <v>0</v>
       </c>
       <c r="G37">
-        <v>75</v>
+        <v>200</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B38">
-        <v>1040</v>
-      </c>
-      <c r="C38" t="s">
-        <v>8</v>
+        <v>260</v>
+      </c>
+      <c r="C38">
+        <v>3</v>
       </c>
       <c r="D38">
         <v>0</v>
       </c>
       <c r="E38">
-        <v>1500</v>
+        <v>9999</v>
       </c>
       <c r="F38">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G38">
-        <v>110</v>
+        <v>200</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B39">
-        <v>1120</v>
-      </c>
-      <c r="C39" t="s">
-        <v>8</v>
+        <v>260</v>
+      </c>
+      <c r="C39">
+        <v>4</v>
       </c>
       <c r="D39">
         <v>0</v>
       </c>
       <c r="E39">
-        <v>1500</v>
+        <v>9999</v>
       </c>
       <c r="F39">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="G39">
-        <v>175</v>
+        <v>200</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B40">
-        <v>1160</v>
-      </c>
-      <c r="C40" t="s">
-        <v>8</v>
+        <v>300</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
       </c>
       <c r="D40">
         <v>0</v>
       </c>
       <c r="E40">
-        <v>1550</v>
+        <v>9999</v>
       </c>
       <c r="F40">
         <v>0</v>
       </c>
       <c r="G40">
-        <v>1160</v>
+        <v>200</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B41">
-        <v>1200</v>
-      </c>
-      <c r="C41" t="s">
-        <v>8</v>
+        <v>320</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
       </c>
       <c r="D41">
-        <v>650</v>
+        <v>0</v>
       </c>
       <c r="E41">
         <v>9999</v>
       </c>
       <c r="F41">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G41">
-        <v>160</v>
+        <v>200</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B42">
-        <v>1440</v>
-      </c>
-      <c r="C42" t="s">
-        <v>8</v>
+        <v>320</v>
+      </c>
+      <c r="C42">
+        <v>2</v>
       </c>
       <c r="D42">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E42">
         <v>9999</v>
@@ -1414,21 +1405,21 @@
         <v>0</v>
       </c>
       <c r="G42">
-        <v>195</v>
+        <v>200</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B43">
-        <v>1600</v>
-      </c>
-      <c r="C43" t="s">
-        <v>8</v>
+        <v>320</v>
+      </c>
+      <c r="C43">
+        <v>3</v>
       </c>
       <c r="D43">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E43">
         <v>9999</v>
@@ -1437,21 +1428,21 @@
         <v>0</v>
       </c>
       <c r="G43">
-        <v>180</v>
+        <v>200</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B44">
-        <v>1800</v>
-      </c>
-      <c r="C44" t="s">
-        <v>8</v>
+        <v>330</v>
+      </c>
+      <c r="C44">
+        <v>1</v>
       </c>
       <c r="D44">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E44">
         <v>9999</v>
@@ -1460,30 +1451,1594 @@
         <v>0</v>
       </c>
       <c r="G44">
-        <v>180</v>
+        <v>200</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B45">
+        <v>350</v>
+      </c>
+      <c r="C45">
+        <v>1</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>9999</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>7</v>
+      </c>
+      <c r="B46">
+        <v>350</v>
+      </c>
+      <c r="C46">
+        <v>2</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46">
+        <v>9999</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>7</v>
+      </c>
+      <c r="B47">
+        <v>350</v>
+      </c>
+      <c r="C47">
+        <v>3</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="E47">
+        <v>9999</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+      <c r="G47">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>7</v>
+      </c>
+      <c r="B48">
+        <v>350</v>
+      </c>
+      <c r="C48">
+        <v>4</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48">
+        <v>9999</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+      <c r="G48">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>7</v>
+      </c>
+      <c r="B49">
+        <v>370</v>
+      </c>
+      <c r="C49">
+        <v>1</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="E49">
+        <v>9999</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>7</v>
+      </c>
+      <c r="B50">
+        <v>370</v>
+      </c>
+      <c r="C50">
+        <v>2</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50">
+        <v>9999</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+      <c r="G50">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>7</v>
+      </c>
+      <c r="B51">
+        <v>370</v>
+      </c>
+      <c r="C51">
+        <v>3</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <v>9999</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>7</v>
+      </c>
+      <c r="B52">
+        <v>400</v>
+      </c>
+      <c r="C52">
+        <v>1</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>9999</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>7</v>
+      </c>
+      <c r="B53">
+        <v>400</v>
+      </c>
+      <c r="C53">
+        <v>2</v>
+      </c>
+      <c r="D53">
+        <v>0</v>
+      </c>
+      <c r="E53">
+        <v>9999</v>
+      </c>
+      <c r="F53">
+        <v>0</v>
+      </c>
+      <c r="G53">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>7</v>
+      </c>
+      <c r="B54">
+        <v>400</v>
+      </c>
+      <c r="C54">
+        <v>3</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
+      <c r="E54">
+        <v>9999</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+      <c r="G54">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>7</v>
+      </c>
+      <c r="B55">
+        <v>400</v>
+      </c>
+      <c r="C55">
+        <v>4</v>
+      </c>
+      <c r="D55">
+        <v>0</v>
+      </c>
+      <c r="E55">
+        <v>9999</v>
+      </c>
+      <c r="F55">
+        <v>0</v>
+      </c>
+      <c r="G55">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>7</v>
+      </c>
+      <c r="B56">
+        <v>440</v>
+      </c>
+      <c r="C56">
+        <v>1</v>
+      </c>
+      <c r="D56">
+        <v>0</v>
+      </c>
+      <c r="E56">
+        <v>9999</v>
+      </c>
+      <c r="F56">
+        <v>0</v>
+      </c>
+      <c r="G56">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>7</v>
+      </c>
+      <c r="B57">
+        <v>440</v>
+      </c>
+      <c r="C57">
+        <v>2</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>9999</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>8</v>
+      </c>
+      <c r="B58">
+        <v>20</v>
+      </c>
+      <c r="C58">
+        <v>1</v>
+      </c>
+      <c r="D58">
+        <v>0</v>
+      </c>
+      <c r="E58">
+        <v>9999</v>
+      </c>
+      <c r="F58">
+        <v>0</v>
+      </c>
+      <c r="G58">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>8</v>
+      </c>
+      <c r="B59">
+        <v>20</v>
+      </c>
+      <c r="C59">
+        <v>2</v>
+      </c>
+      <c r="D59">
+        <v>0</v>
+      </c>
+      <c r="E59">
+        <v>9999</v>
+      </c>
+      <c r="F59">
+        <v>0</v>
+      </c>
+      <c r="G59">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>8</v>
+      </c>
+      <c r="B60">
+        <v>20</v>
+      </c>
+      <c r="C60">
+        <v>3</v>
+      </c>
+      <c r="D60">
+        <v>0</v>
+      </c>
+      <c r="E60">
+        <v>9999</v>
+      </c>
+      <c r="F60">
+        <v>0</v>
+      </c>
+      <c r="G60">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>8</v>
+      </c>
+      <c r="B61">
+        <v>40</v>
+      </c>
+      <c r="C61">
+        <v>1</v>
+      </c>
+      <c r="D61">
+        <v>0</v>
+      </c>
+      <c r="E61">
+        <v>9999</v>
+      </c>
+      <c r="F61">
+        <v>0</v>
+      </c>
+      <c r="G61">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>8</v>
+      </c>
+      <c r="B62">
+        <v>40</v>
+      </c>
+      <c r="C62">
+        <v>2</v>
+      </c>
+      <c r="D62">
+        <v>0</v>
+      </c>
+      <c r="E62">
+        <v>9999</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>8</v>
+      </c>
+      <c r="B63">
+        <v>40</v>
+      </c>
+      <c r="C63">
+        <v>3</v>
+      </c>
+      <c r="D63">
+        <v>0</v>
+      </c>
+      <c r="E63">
+        <v>9999</v>
+      </c>
+      <c r="F63">
+        <v>0</v>
+      </c>
+      <c r="G63">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>8</v>
+      </c>
+      <c r="B64">
+        <v>60</v>
+      </c>
+      <c r="C64">
+        <v>1</v>
+      </c>
+      <c r="D64">
+        <v>0</v>
+      </c>
+      <c r="E64">
+        <v>9999</v>
+      </c>
+      <c r="F64">
+        <v>0</v>
+      </c>
+      <c r="G64">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>8</v>
+      </c>
+      <c r="B65">
+        <v>60</v>
+      </c>
+      <c r="C65">
+        <v>2</v>
+      </c>
+      <c r="D65">
+        <v>0</v>
+      </c>
+      <c r="E65">
+        <v>9999</v>
+      </c>
+      <c r="F65">
+        <v>0</v>
+      </c>
+      <c r="G65">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>8</v>
+      </c>
+      <c r="B66">
+        <v>60</v>
+      </c>
+      <c r="C66">
+        <v>3</v>
+      </c>
+      <c r="D66">
+        <v>0</v>
+      </c>
+      <c r="E66">
+        <v>9999</v>
+      </c>
+      <c r="F66">
+        <v>0</v>
+      </c>
+      <c r="G66">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>8</v>
+      </c>
+      <c r="B67">
+        <v>80</v>
+      </c>
+      <c r="C67">
+        <v>1</v>
+      </c>
+      <c r="D67">
+        <v>0</v>
+      </c>
+      <c r="E67">
+        <v>9999</v>
+      </c>
+      <c r="F67">
+        <v>0</v>
+      </c>
+      <c r="G67">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>8</v>
+      </c>
+      <c r="B68">
+        <v>80</v>
+      </c>
+      <c r="C68">
+        <v>2</v>
+      </c>
+      <c r="D68">
+        <v>0</v>
+      </c>
+      <c r="E68">
+        <v>9999</v>
+      </c>
+      <c r="F68">
+        <v>0</v>
+      </c>
+      <c r="G68">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>8</v>
+      </c>
+      <c r="B69">
+        <v>80</v>
+      </c>
+      <c r="C69">
+        <v>3</v>
+      </c>
+      <c r="D69">
+        <v>0</v>
+      </c>
+      <c r="E69">
+        <v>9999</v>
+      </c>
+      <c r="F69">
+        <v>0</v>
+      </c>
+      <c r="G69">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>8</v>
+      </c>
+      <c r="B70">
+        <v>100</v>
+      </c>
+      <c r="C70">
+        <v>1</v>
+      </c>
+      <c r="D70">
+        <v>0</v>
+      </c>
+      <c r="E70">
+        <v>9999</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>8</v>
+      </c>
+      <c r="B71">
+        <v>100</v>
+      </c>
+      <c r="C71">
+        <v>2</v>
+      </c>
+      <c r="D71">
+        <v>0</v>
+      </c>
+      <c r="E71">
+        <v>9999</v>
+      </c>
+      <c r="F71">
+        <v>0</v>
+      </c>
+      <c r="G71">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>8</v>
+      </c>
+      <c r="B72">
+        <v>100</v>
+      </c>
+      <c r="C72">
+        <v>3</v>
+      </c>
+      <c r="D72">
+        <v>0</v>
+      </c>
+      <c r="E72">
+        <v>9999</v>
+      </c>
+      <c r="F72">
+        <v>0</v>
+      </c>
+      <c r="G72">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>8</v>
+      </c>
+      <c r="B73">
+        <v>140</v>
+      </c>
+      <c r="C73">
+        <v>1</v>
+      </c>
+      <c r="D73">
+        <v>0</v>
+      </c>
+      <c r="E73">
+        <v>9999</v>
+      </c>
+      <c r="F73">
+        <v>0</v>
+      </c>
+      <c r="G73">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>8</v>
+      </c>
+      <c r="B74">
+        <v>140</v>
+      </c>
+      <c r="C74">
+        <v>2</v>
+      </c>
+      <c r="D74">
+        <v>0</v>
+      </c>
+      <c r="E74">
+        <v>9999</v>
+      </c>
+      <c r="F74">
+        <v>0</v>
+      </c>
+      <c r="G74">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>8</v>
+      </c>
+      <c r="B75">
+        <v>140</v>
+      </c>
+      <c r="C75">
+        <v>3</v>
+      </c>
+      <c r="D75">
+        <v>0</v>
+      </c>
+      <c r="E75">
+        <v>9999</v>
+      </c>
+      <c r="F75">
+        <v>0</v>
+      </c>
+      <c r="G75">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>8</v>
+      </c>
+      <c r="B76">
+        <v>180</v>
+      </c>
+      <c r="C76">
+        <v>1</v>
+      </c>
+      <c r="D76">
+        <v>0</v>
+      </c>
+      <c r="E76">
+        <v>9999</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+      <c r="G76">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>8</v>
+      </c>
+      <c r="B77">
+        <v>180</v>
+      </c>
+      <c r="C77">
+        <v>2</v>
+      </c>
+      <c r="D77">
+        <v>0</v>
+      </c>
+      <c r="E77">
+        <v>9999</v>
+      </c>
+      <c r="F77">
+        <v>0</v>
+      </c>
+      <c r="G77">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>8</v>
+      </c>
+      <c r="B78">
+        <v>180</v>
+      </c>
+      <c r="C78">
+        <v>3</v>
+      </c>
+      <c r="D78">
+        <v>0</v>
+      </c>
+      <c r="E78">
+        <v>9999</v>
+      </c>
+      <c r="F78">
+        <v>0</v>
+      </c>
+      <c r="G78">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>8</v>
+      </c>
+      <c r="B79">
+        <v>220</v>
+      </c>
+      <c r="C79">
+        <v>1</v>
+      </c>
+      <c r="D79">
+        <v>0</v>
+      </c>
+      <c r="E79">
+        <v>9999</v>
+      </c>
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="G79">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>8</v>
+      </c>
+      <c r="B80">
+        <v>220</v>
+      </c>
+      <c r="C80">
+        <v>2</v>
+      </c>
+      <c r="D80">
+        <v>0</v>
+      </c>
+      <c r="E80">
+        <v>9999</v>
+      </c>
+      <c r="F80">
+        <v>0</v>
+      </c>
+      <c r="G80">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>8</v>
+      </c>
+      <c r="B81">
+        <v>220</v>
+      </c>
+      <c r="C81">
+        <v>3</v>
+      </c>
+      <c r="D81">
+        <v>0</v>
+      </c>
+      <c r="E81">
+        <v>9999</v>
+      </c>
+      <c r="F81">
+        <v>0</v>
+      </c>
+      <c r="G81">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>8</v>
+      </c>
+      <c r="B82">
+        <v>260</v>
+      </c>
+      <c r="C82">
+        <v>1</v>
+      </c>
+      <c r="D82">
+        <v>0</v>
+      </c>
+      <c r="E82">
+        <v>9999</v>
+      </c>
+      <c r="F82">
+        <v>0</v>
+      </c>
+      <c r="G82">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>8</v>
+      </c>
+      <c r="B83">
+        <v>260</v>
+      </c>
+      <c r="C83">
+        <v>2</v>
+      </c>
+      <c r="D83">
+        <v>0</v>
+      </c>
+      <c r="E83">
+        <v>9999</v>
+      </c>
+      <c r="F83">
+        <v>0</v>
+      </c>
+      <c r="G83">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>8</v>
+      </c>
+      <c r="B84">
+        <v>260</v>
+      </c>
+      <c r="C84">
+        <v>3</v>
+      </c>
+      <c r="D84">
+        <v>0</v>
+      </c>
+      <c r="E84">
+        <v>9999</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>8</v>
+      </c>
+      <c r="B85">
+        <v>300</v>
+      </c>
+      <c r="C85">
+        <v>1</v>
+      </c>
+      <c r="D85">
+        <v>0</v>
+      </c>
+      <c r="E85">
+        <v>9999</v>
+      </c>
+      <c r="F85">
+        <v>0</v>
+      </c>
+      <c r="G85">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>8</v>
+      </c>
+      <c r="B86">
+        <v>300</v>
+      </c>
+      <c r="C86">
+        <v>2</v>
+      </c>
+      <c r="D86">
+        <v>0</v>
+      </c>
+      <c r="E86">
+        <v>9999</v>
+      </c>
+      <c r="F86">
+        <v>0</v>
+      </c>
+      <c r="G86">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>8</v>
+      </c>
+      <c r="B87">
+        <v>300</v>
+      </c>
+      <c r="C87">
+        <v>3</v>
+      </c>
+      <c r="D87">
+        <v>0</v>
+      </c>
+      <c r="E87">
+        <v>9999</v>
+      </c>
+      <c r="F87">
+        <v>0</v>
+      </c>
+      <c r="G87">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>8</v>
+      </c>
+      <c r="B88">
+        <v>350</v>
+      </c>
+      <c r="C88">
+        <v>1</v>
+      </c>
+      <c r="D88">
+        <v>0</v>
+      </c>
+      <c r="E88">
+        <v>9999</v>
+      </c>
+      <c r="F88">
+        <v>0</v>
+      </c>
+      <c r="G88">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>8</v>
+      </c>
+      <c r="B89">
+        <v>350</v>
+      </c>
+      <c r="C89">
+        <v>2</v>
+      </c>
+      <c r="D89">
+        <v>0</v>
+      </c>
+      <c r="E89">
+        <v>9999</v>
+      </c>
+      <c r="F89">
+        <v>0</v>
+      </c>
+      <c r="G89">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>8</v>
+      </c>
+      <c r="B90">
+        <v>350</v>
+      </c>
+      <c r="C90">
+        <v>3</v>
+      </c>
+      <c r="D90">
+        <v>0</v>
+      </c>
+      <c r="E90">
+        <v>9999</v>
+      </c>
+      <c r="F90">
+        <v>0</v>
+      </c>
+      <c r="G90">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>8</v>
+      </c>
+      <c r="B91">
+        <v>370</v>
+      </c>
+      <c r="C91">
+        <v>1</v>
+      </c>
+      <c r="D91">
+        <v>0</v>
+      </c>
+      <c r="E91">
+        <v>9999</v>
+      </c>
+      <c r="F91">
+        <v>0</v>
+      </c>
+      <c r="G91">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>8</v>
+      </c>
+      <c r="B92">
+        <v>370</v>
+      </c>
+      <c r="C92">
+        <v>2</v>
+      </c>
+      <c r="D92">
+        <v>0</v>
+      </c>
+      <c r="E92">
+        <v>9999</v>
+      </c>
+      <c r="F92">
+        <v>0</v>
+      </c>
+      <c r="G92">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>8</v>
+      </c>
+      <c r="B93">
+        <v>370</v>
+      </c>
+      <c r="C93">
+        <v>3</v>
+      </c>
+      <c r="D93">
+        <v>0</v>
+      </c>
+      <c r="E93">
+        <v>9999</v>
+      </c>
+      <c r="F93">
+        <v>0</v>
+      </c>
+      <c r="G93">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>8</v>
+      </c>
+      <c r="B94">
+        <v>400</v>
+      </c>
+      <c r="C94">
+        <v>1</v>
+      </c>
+      <c r="D94">
+        <v>0</v>
+      </c>
+      <c r="E94">
+        <v>9999</v>
+      </c>
+      <c r="F94">
+        <v>0</v>
+      </c>
+      <c r="G94">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>8</v>
+      </c>
+      <c r="B95">
+        <v>400</v>
+      </c>
+      <c r="C95">
+        <v>2</v>
+      </c>
+      <c r="D95">
+        <v>0</v>
+      </c>
+      <c r="E95">
+        <v>9999</v>
+      </c>
+      <c r="F95">
+        <v>0</v>
+      </c>
+      <c r="G95">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>8</v>
+      </c>
+      <c r="B96">
+        <v>400</v>
+      </c>
+      <c r="C96">
+        <v>3</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+      <c r="E96">
+        <v>9999</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>8</v>
+      </c>
+      <c r="B97">
+        <v>500</v>
+      </c>
+      <c r="C97">
+        <v>1</v>
+      </c>
+      <c r="D97">
+        <v>0</v>
+      </c>
+      <c r="E97">
+        <v>9999</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>8</v>
+      </c>
+      <c r="B98">
+        <v>600</v>
+      </c>
+      <c r="C98">
+        <v>1</v>
+      </c>
+      <c r="D98">
+        <v>0</v>
+      </c>
+      <c r="E98">
+        <v>9999</v>
+      </c>
+      <c r="F98">
+        <v>0</v>
+      </c>
+      <c r="G98">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>8</v>
+      </c>
+      <c r="B99">
+        <v>700</v>
+      </c>
+      <c r="C99">
+        <v>1</v>
+      </c>
+      <c r="D99">
+        <v>0</v>
+      </c>
+      <c r="E99">
+        <v>9999</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>8</v>
+      </c>
+      <c r="B100">
+        <v>800</v>
+      </c>
+      <c r="C100">
+        <v>1</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+      <c r="E100">
+        <v>9999</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>8</v>
+      </c>
+      <c r="B101">
+        <v>1000</v>
+      </c>
+      <c r="C101">
+        <v>1</v>
+      </c>
+      <c r="D101">
+        <v>0</v>
+      </c>
+      <c r="E101">
+        <v>9999</v>
+      </c>
+      <c r="F101">
+        <v>0</v>
+      </c>
+      <c r="G101">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>8</v>
+      </c>
+      <c r="B102">
+        <v>1040</v>
+      </c>
+      <c r="C102">
+        <v>1</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+      <c r="E102">
+        <v>9999</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>8</v>
+      </c>
+      <c r="B103">
+        <v>1080</v>
+      </c>
+      <c r="C103">
+        <v>1</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+      <c r="E103">
+        <v>9999</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>8</v>
+      </c>
+      <c r="B104">
+        <v>1120</v>
+      </c>
+      <c r="C104">
+        <v>1</v>
+      </c>
+      <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>9999</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>8</v>
+      </c>
+      <c r="B105">
+        <v>1160</v>
+      </c>
+      <c r="C105">
+        <v>1</v>
+      </c>
+      <c r="D105">
+        <v>0</v>
+      </c>
+      <c r="E105">
+        <v>9999</v>
+      </c>
+      <c r="F105">
+        <v>0</v>
+      </c>
+      <c r="G105">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>8</v>
+      </c>
+      <c r="B106">
+        <v>1200</v>
+      </c>
+      <c r="C106">
+        <v>1</v>
+      </c>
+      <c r="D106">
+        <v>0</v>
+      </c>
+      <c r="E106">
+        <v>9999</v>
+      </c>
+      <c r="F106">
+        <v>0</v>
+      </c>
+      <c r="G106">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>8</v>
+      </c>
+      <c r="B107">
+        <v>1200</v>
+      </c>
+      <c r="C107">
+        <v>2</v>
+      </c>
+      <c r="D107">
+        <v>0</v>
+      </c>
+      <c r="E107">
+        <v>9999</v>
+      </c>
+      <c r="F107">
+        <v>0</v>
+      </c>
+      <c r="G107">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>8</v>
+      </c>
+      <c r="B108">
+        <v>1400</v>
+      </c>
+      <c r="C108">
+        <v>1</v>
+      </c>
+      <c r="D108">
+        <v>0</v>
+      </c>
+      <c r="E108">
+        <v>9999</v>
+      </c>
+      <c r="F108">
+        <v>0</v>
+      </c>
+      <c r="G108">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>8</v>
+      </c>
+      <c r="B109">
+        <v>1440</v>
+      </c>
+      <c r="C109">
+        <v>1</v>
+      </c>
+      <c r="D109">
+        <v>0</v>
+      </c>
+      <c r="E109">
+        <v>9999</v>
+      </c>
+      <c r="F109">
+        <v>0</v>
+      </c>
+      <c r="G109">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>8</v>
+      </c>
+      <c r="B110">
+        <v>1480</v>
+      </c>
+      <c r="C110">
+        <v>1</v>
+      </c>
+      <c r="D110">
+        <v>0</v>
+      </c>
+      <c r="E110">
+        <v>9999</v>
+      </c>
+      <c r="F110">
+        <v>0</v>
+      </c>
+      <c r="G110">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>8</v>
+      </c>
+      <c r="B111">
+        <v>1600</v>
+      </c>
+      <c r="C111">
+        <v>1</v>
+      </c>
+      <c r="D111">
+        <v>0</v>
+      </c>
+      <c r="E111">
+        <v>9999</v>
+      </c>
+      <c r="F111">
+        <v>0</v>
+      </c>
+      <c r="G111">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>8</v>
+      </c>
+      <c r="B112">
+        <v>1800</v>
+      </c>
+      <c r="C112">
+        <v>1</v>
+      </c>
+      <c r="D112">
+        <v>0</v>
+      </c>
+      <c r="E112">
+        <v>9999</v>
+      </c>
+      <c r="F112">
+        <v>0</v>
+      </c>
+      <c r="G112">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>8</v>
+      </c>
+      <c r="B113">
         <v>2000</v>
       </c>
-      <c r="C45" t="s">
-        <v>8</v>
-      </c>
-      <c r="D45">
-        <v>0</v>
-      </c>
-      <c r="E45">
-        <v>9999</v>
-      </c>
-      <c r="F45">
-        <v>10</v>
-      </c>
-      <c r="G45">
-        <v>150</v>
+      <c r="C113">
+        <v>1</v>
+      </c>
+      <c r="D113">
+        <v>0</v>
+      </c>
+      <c r="E113">
+        <v>9999</v>
+      </c>
+      <c r="F113">
+        <v>0</v>
+      </c>
+      <c r="G113">
+        <v>200</v>
       </c>
     </row>
   </sheetData>
